--- a/U1/IREB/G6_Matriz_IREB_V2.xlsx
+++ b/U1/IREB/G6_Matriz_IREB_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caeta\Documents\6to\27837_G6_ADS\U1\IREB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EACA475-79E8-4D94-8D68-5A3EF98F97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993548D-7888-40A4-974E-6E40C314C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz Ckeck LIst" sheetId="1" r:id="rId1"/>
@@ -949,7 +949,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="99">
   <si>
     <t>MATRIZ PARA COMPROBACIÓN REQUERIMIENTOS DE CALIDAD DE PROYECTO ACADEMICO</t>
   </si>
@@ -1187,22 +1187,7 @@
 </t>
   </si>
   <si>
-    <t>Se recomienda establecer un proceso formal de gestión de cambios que incluya el registro, revisión e incorporación de cada sugerencia recibida por parte del tutor o cliente, asegurando que los requisitos estén siempre actualizados, reflejen las expectativas reales y eviten ambigüedades o malentendidos en etapas posteriores del desarrollo.</t>
-  </si>
-  <si>
-    <t>¿Que tan facil es devolverse a los requisitos?</t>
-  </si>
-  <si>
     <t>¿Cumple con las estructuras definida por el estandar?</t>
-  </si>
-  <si>
-    <t>Se recomienda elaborar casos de prueba específicos para cada requisito, de forma que su cumplimiento pueda ser verificado objetivamente, permitiendo validar que el sistema cumple con lo solicitado y reducirá el riesgo de errores o malentendidos durante el desarrollo y las pruebas.</t>
-  </si>
-  <si>
-    <t>¿Utiliza un Glosario de términos normalizado?</t>
-  </si>
-  <si>
-    <t>Se recomienda realizar sesiones de validación y consenso con todos los interesados clave antes de cerrar la especificación de requerimientos, esto asegurará que los requerimientos reflejen las necesidades puntuales.</t>
   </si>
   <si>
     <t>RF-KAIROSMIX-1.2- Actualizar Producto</t>
@@ -1211,13 +1196,7 @@
     <t>Se recomienda crear un registro explícito que muestre que este requisito afecta la tabla de Inventario y los módulos de Pedidos, asegurando que cualquier cambio en la lógica de actualización se revise en esos módulos.</t>
   </si>
   <si>
-    <t>Implementar hipervínculos internos para la versión digital del SRS, hacer que las referencias internas sean enlaces directos para reducir el tiempo de búsqueda y navegación.</t>
-  </si>
-  <si>
     <t>Se sugiere Ampliar la sección de excepciones para definir el mecanismo de revierte el estado en caso de fallo de conexión con la base de datos, garantizando la Integridad de Datos.</t>
-  </si>
-  <si>
-    <t>Se recomienda agregar un término al glosario que defina cómo se manejan los "incrementos (por reposición) como decrementos (por ajustes manuales o pedidos)"  para clarificar la lógica de negocio.</t>
   </si>
   <si>
     <t xml:space="preserve">RF-KAIROSMIX-1.3- Consultar Producto </t>
@@ -1226,25 +1205,10 @@
     <t>Se recomienda asegurar que este requisito esté trazado directamente al requisito de Generar Reporte de Pedidos y Consultar Mezclas Personalizadas, ya que ambos consumen la información de productos.</t>
   </si>
   <si>
-    <t>Se recomienda estandarizar la nomenclatura de criterios y asi asegurar que los criterios de búsqueda sean uniformes en todas las consultas para reducir la ambigüedad en la lectura y el desarrollo.</t>
-  </si>
-  <si>
-    <t>Se sugiere añadir el tipo de búsqueda al glosario, incluir las definiciones de "Búsqueda Exacta" y "Búsqueda Parcial" para establecer claramente cómo debe funcionar el sistema de consulta en términos técnicos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">RF-KAIROSMIX-1.4- Eliminar Producto </t>
   </si>
   <si>
-    <t>Se debe crear una regla de trazabilidad que prohíba la eliminación lógica (desactivación) de un producto si este está incluido en un pedido con estado "Pendiente" o "En Proceso" , para asegurar la Integridad de Datos durante la operación actual.</t>
-  </si>
-  <si>
-    <t>Se sugiere mantener un historial de cambios específico para este requisito en el apéndice del SRS, ya que el concepto de "eliminación lógica" es crucial y propenso a malentendidos si se modifica posteriormente.</t>
-  </si>
-  <si>
     <t>Se recomienda definir la reactivación como sub-función (pasar de 'Inactivo' a 'Activo'), que se menciona implícitamente en los comentarios, como un requisito funcional secundario, asegurando que el requisito de negocio esté formalmente estructurado.</t>
-  </si>
-  <si>
-    <t>Se recomienda agregar el término "Eliminación Lógica" al glosario, definiéndolo como "El cambio del estado de un registro de 'Activo' a 'Inactivo' para su exclusión de las operaciones de negocio, manteniendo su conservación para fines históricos y de trazabilidad"</t>
   </si>
   <si>
     <t>1. El origen del requisito no es facilmente rastreable desde la matriz de trazabilidad.</t>
@@ -1252,16 +1216,80 @@
   <si>
     <t>Aunque el requisito mantiene coherencia con los demás y utiliza los términos de forma uniforme, se recomienda generar una matriz de trazabilidad</t>
   </si>
+  <si>
+    <t>¿Qué métricas cuantificables y qué casos de prueba concretos definen el éxito de la función de registro?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Cuál es la fuente documental o el </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stakeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que originó esta necesidad?</t>
+    </r>
+  </si>
+  <si>
+    <t>Establecer la trazabilidad desde cero. Crear una matriz simple que vincule el requisito con su origen directo (necesidad de negocio, user story, normativa) para garantizar que es legítimo y alineado con los objetivos.</t>
+  </si>
+  <si>
+    <t>Definir criterios de aceptación SMART (Específicos, Medibles, etc.) para el requisito. Luego, crear y documentar los casos de prueba que validen estos criterios de forma objetiva.</t>
+  </si>
+  <si>
+    <t>¿Se ha especificado la regla de unicidad del nombre del producto y qué acción debe tomar el sistema si el nuevo nombre ya existe?</t>
+  </si>
+  <si>
+    <t>Completar la especificación añadiendo una restricción explícita: "El sistema debe validar la unicidad del nuevo nombre de producto contra todos los productos existentes antes de completar la actualización y debe mostrar un mensaje de error si el nombre ya está en uso."</t>
+  </si>
+  <si>
+    <t>¿Cómo se medirá el éxito de la consulta y qué pruebas existen para confirmarlo?</t>
+  </si>
+  <si>
+    <t>Especificar criterios medibles y de prueba. Incorporar criterios de aceptación cuantificables (por ejemplo, métricas de tiempo de respuesta o precisión) y documentar los casos de prueba necesarios para validar dichos criterios.</t>
+  </si>
+  <si>
+    <t>¿Están completamente definidas las condiciones y el tipo de eliminación (lógica vs. física) del producto?</t>
+  </si>
+  <si>
+    <t>Asegurar la completitud de la regla de negocio. Especificar si la "Eliminación" tiene restricciones por dependencias (ej. si está en un pedido) y si debe ser una eliminación definitiva o una desactivación (soft-delete).</t>
+  </si>
+  <si>
+    <t>¿Cómo se medirá el éxito de la eliminación y qué pruebas existen para confirmarlo?</t>
+  </si>
+  <si>
+    <t>Especificar criterios medibles y de prueba. Incorporar criterios de aceptación cuantificables (ej. velocidad de respuesta) y documentar los casos de prueba necesarios para validar la ejecución exitosa de la eliminación.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1365,6 +1393,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1416,7 +1457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1555,191 +1596,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3781,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="68" workbookViewId="0">
+      <selection activeCell="K1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3791,13 +3863,13 @@
     <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="42.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="42.6640625" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="42.6640625" customWidth="1"/>
     <col min="14" max="27" width="11.44140625" customWidth="1"/>
@@ -3810,117 +3882,117 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="4">
         <v>100</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
@@ -3953,10 +4025,10 @@
       <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -3986,10 +4058,10 @@
       <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
@@ -4019,10 +4091,10 @@
       <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
@@ -4052,10 +4124,10 @@
       <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
@@ -4085,10 +4157,10 @@
       <c r="B14" s="5">
         <v>6</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
@@ -4118,10 +4190,10 @@
       <c r="B15" s="5">
         <v>7</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
@@ -4151,10 +4223,10 @@
       <c r="B16" s="5">
         <v>8</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
@@ -4184,32 +4256,32 @@
       <c r="B17" s="5">
         <v>9</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>97</v>
+      <c r="F17" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="38" t="s">
         <v>34</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4217,10 +4289,10 @@
       <c r="B18" s="5">
         <v>10</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
@@ -4250,10 +4322,10 @@
       <c r="B19" s="5">
         <v>11</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="6" t="s">
         <v>12</v>
       </c>
@@ -7280,10 +7352,10 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -7311,37 +7383,37 @@
       <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="58">
         <v>45946</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -7358,7 +7430,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -7367,10 +7439,10 @@
       <c r="C8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -7379,22 +7451,22 @@
       <c r="C9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -7403,22 +7475,22 @@
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -7427,10 +7499,10 @@
       <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -7439,10 +7511,10 @@
       <c r="C14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -7451,7 +7523,7 @@
       <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
@@ -7463,13 +7535,13 @@
       <c r="C16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$8:$C$16)</f>
         <v>7</v>
@@ -7480,10 +7552,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="25">
         <f t="shared" ref="C18:D18" si="0">C17/9</f>
         <v>0.77777777777777779</v>
@@ -7500,29 +7572,29 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>1</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -7531,10 +7603,10 @@
       <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>2</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -7543,10 +7615,10 @@
       <c r="C23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>3</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -7555,10 +7627,10 @@
       <c r="C24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>4</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -7567,7 +7639,7 @@
       <c r="C25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
@@ -7582,10 +7654,10 @@
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$22:$C$26)</f>
         <v>5</v>
@@ -7596,10 +7668,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="25">
         <f t="shared" ref="C28:D28" si="1">C27/5</f>
         <v>1</v>
@@ -7616,29 +7688,29 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>1</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -7650,7 +7722,7 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>2</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -7674,10 +7746,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8">
         <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$32:$C$34)</f>
         <v>2</v>
@@ -7688,10 +7760,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="25">
         <f t="shared" ref="C36:D36" si="2">C35/3</f>
         <v>0.66666666666666663</v>
@@ -7705,11 +7777,11 @@
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
@@ -8763,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602D247-3F07-473A-BACF-43A6FD49FF85}">
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8783,35 +8855,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>82</v>
+      <c r="B4" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9816,7 +9880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5DAA21-6695-48A4-970E-5427B9AFB337}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -9833,10 +9897,10 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -9864,37 +9928,37 @@
       <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="58">
         <v>45946</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="64"/>
+      <c r="C4" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -9911,7 +9975,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -9920,10 +9984,10 @@
       <c r="C8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -9932,22 +9996,22 @@
       <c r="C9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -9956,22 +10020,22 @@
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -9980,10 +10044,10 @@
       <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -9992,10 +10056,10 @@
       <c r="C14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -10004,7 +10068,7 @@
       <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
@@ -10016,13 +10080,13 @@
       <c r="C16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACIO 1.2'!$C$8:$C$16)</f>
         <v>7</v>
@@ -10033,10 +10097,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="25">
         <f t="shared" ref="C18:D18" si="0">C17/9</f>
         <v>0.77777777777777779</v>
@@ -10053,29 +10117,29 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>1</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -10084,10 +10148,10 @@
       <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>2</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -10096,10 +10160,10 @@
       <c r="C23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>3</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -10111,7 +10175,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>4</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -10120,7 +10184,7 @@
       <c r="C25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
@@ -10135,10 +10199,10 @@
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACIO 1.2'!$C$22:$C$26)</f>
         <v>4</v>
@@ -10149,10 +10213,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="25">
         <f t="shared" ref="C28:D28" si="1">C27/5</f>
         <v>0.8</v>
@@ -10169,29 +10233,29 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>1</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -10203,7 +10267,7 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>2</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -10227,10 +10291,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8">
         <f>COUNTA('MODELO LISTA DE COMPROBACIO 1.2'!$C$32:$C$34)</f>
         <v>2</v>
@@ -10241,10 +10305,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="25">
         <f t="shared" ref="C36:D36" si="2">C35/3</f>
         <v>0.66666666666666663</v>
@@ -10258,11 +10322,11 @@
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
@@ -11331,7 +11395,7 @@
   <dimension ref="A1:B998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11350,35 +11414,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>84</v>
+      <c r="B2" s="69" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>85</v>
+      <c r="A3" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>87</v>
+      <c r="A4" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12400,10 +12456,10 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -12431,37 +12487,37 @@
       <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="58">
         <v>45946</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="64"/>
+      <c r="C4" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -12478,7 +12534,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -12487,10 +12543,10 @@
       <c r="C8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -12499,22 +12555,22 @@
       <c r="C9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -12523,22 +12579,22 @@
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -12547,10 +12603,10 @@
       <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -12559,10 +12615,10 @@
       <c r="C14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -12571,7 +12627,7 @@
       <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
@@ -12583,13 +12639,13 @@
       <c r="C16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACION1.3'!$C$8:$C$16)</f>
         <v>7</v>
@@ -12600,10 +12656,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="25">
         <f t="shared" ref="C18:D18" si="0">C17/9</f>
         <v>0.77777777777777779</v>
@@ -12620,29 +12676,29 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>1</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -12651,10 +12707,10 @@
       <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>2</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -12663,10 +12719,10 @@
       <c r="C23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>3</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -12675,10 +12731,10 @@
       <c r="C24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>4</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -12687,7 +12743,7 @@
       <c r="C25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
@@ -12702,10 +12758,10 @@
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACION1.3'!$C$22:$C$26)</f>
         <v>5</v>
@@ -12716,10 +12772,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="25">
         <f t="shared" ref="C28:D28" si="1">C27/5</f>
         <v>1</v>
@@ -12736,29 +12792,29 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>1</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -12770,7 +12826,7 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>2</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -12794,10 +12850,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8">
         <f>COUNTA('MODELO LISTA DE COMPROBACION1.3'!$C$32:$C$34)</f>
         <v>2</v>
@@ -12808,10 +12864,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="25">
         <f t="shared" ref="C36:D36" si="2">C35/3</f>
         <v>0.66666666666666663</v>
@@ -12825,11 +12881,11 @@
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
@@ -13884,7 +13940,7 @@
   <dimension ref="A1:B998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13895,41 +13951,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="71" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>89</v>
+      <c r="B2" s="72" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="31"/>
-    </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>91</v>
+      <c r="A3" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14952,10 +14994,10 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -14983,37 +15025,37 @@
       <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="58">
         <v>45946</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="64"/>
+      <c r="C4" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -15030,7 +15072,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -15039,10 +15081,10 @@
       <c r="C8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -15051,22 +15093,22 @@
       <c r="C9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -15075,22 +15117,22 @@
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -15099,10 +15141,10 @@
       <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -15111,10 +15153,10 @@
       <c r="C14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -15123,7 +15165,7 @@
       <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
@@ -15135,13 +15177,13 @@
       <c r="C16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACION1.4'!$C$8:$C$16)</f>
         <v>7</v>
@@ -15152,10 +15194,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="25">
         <f t="shared" ref="C18:D18" si="0">C17/9</f>
         <v>0.77777777777777779</v>
@@ -15172,29 +15214,29 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>1</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -15203,10 +15245,10 @@
       <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>2</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -15215,10 +15257,10 @@
       <c r="C23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>3</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -15230,7 +15272,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>4</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -15239,7 +15281,7 @@
       <c r="C25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
@@ -15254,10 +15296,10 @@
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="24">
         <f>COUNTA('MODELO LISTA DE COMPROBACION1.4'!$C$22:$C$26)</f>
         <v>4</v>
@@ -15268,10 +15310,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="25">
         <f t="shared" ref="C28:D28" si="1">C27/5</f>
         <v>0.8</v>
@@ -15288,29 +15330,29 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>1</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -15322,7 +15364,7 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>2</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -15346,10 +15388,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8">
         <f>COUNTA('MODELO LISTA DE COMPROBACION1.4'!$C$32:$C$34)</f>
         <v>2</v>
@@ -15360,10 +15402,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="25">
         <f t="shared" ref="C36:D36" si="2">C35/3</f>
         <v>0.66666666666666663</v>
@@ -15377,11 +15419,11 @@
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
@@ -16447,10 +16489,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98BE014-A6A0-42B8-AF8F-C77AB71B766A}">
-  <dimension ref="A1:B998"/>
+  <dimension ref="A1:B997"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16468,38 +16510,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>78</v>
+    <row r="2" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>79</v>
+      <c r="A4" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16511,988 +16546,987 @@
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
